--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/falcon.system.report.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/falcon.system.report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>读取操作历史</t>
+  </si>
+  <si>
+    <t>5503836b-3fe8-464e-b5b4-8bfc51e40b7a</t>
+  </si>
+  <si>
+    <t>读取资产列表</t>
   </si>
   <si>
     <t>S_VIEW</t>
@@ -130,11 +136,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,66 +164,14 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +185,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -238,69 +268,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,14 +284,37 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,175 +359,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,8 +571,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,32 +580,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,6 +608,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,148 +668,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -864,13 +838,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1232,7 +1206,7 @@
   <dimension ref="A5:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.2"/>
@@ -1301,6 +1275,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="D13" s="1"/>
@@ -1313,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -1329,72 +1314,72 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
